--- a/Excel/SkillModelConfig.xlsx
+++ b/Excel/SkillModelConfig.xlsx
@@ -1129,7 +1129,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1183,7 +1183,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="3:5">
@@ -1194,7 +1194,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="3:5">
@@ -1249,7 +1249,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="3:5">
@@ -1271,7 +1271,7 @@
         <v>16</v>
       </c>
       <c r="E14" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="4:4">
@@ -1285,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="E16" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="3:5">
@@ -1296,7 +1296,7 @@
         <v>18</v>
       </c>
       <c r="E17" s="1">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="3:5">

--- a/Excel/SkillModelConfig.xlsx
+++ b/Excel/SkillModelConfig.xlsx
@@ -1129,7 +1129,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1373,7 +1373,7 @@
         <v>25</v>
       </c>
       <c r="E24" s="1">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="4:4">

--- a/Excel/SkillModelConfig.xlsx
+++ b/Excel/SkillModelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>_ID</t>
   </si>
@@ -58,6 +58,9 @@
     <t>施法时间</t>
   </si>
   <si>
+    <t>是否缩放</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
   </si>
   <si>
     <t>ModelTime</t>
+  </si>
+  <si>
+    <t>ScaleType</t>
   </si>
   <si>
     <t>int</t>
@@ -333,12 +339,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1124,25 +1130,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:E67"/>
+  <dimension ref="C3:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="5.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
     <col min="4" max="4" width="16.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="5" max="6" width="14.25" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5">
+    <row r="3" spans="3:6">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1152,344 +1158,437 @@
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="3:5">
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
       <c r="C4" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:5">
+    <row r="6" s="1" customFormat="1" spans="3:6">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:5">
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:6">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="3:5">
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:6">
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="3:5">
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="3:6">
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="3:5">
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="3:6">
       <c r="C10" s="1">
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="3:5">
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="3:6">
       <c r="C11" s="1">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="3:5">
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="3:6">
       <c r="C12" s="1">
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="3:5">
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="3:6">
       <c r="C13" s="1">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="3:5">
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="3:6">
       <c r="C14" s="1">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E14" s="1">
-        <v>0.3</v>
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="4:4">
       <c r="D15" s="2"/>
     </row>
-    <row r="16" s="1" customFormat="1" spans="3:5">
+    <row r="16" s="1" customFormat="1" spans="3:6">
       <c r="C16" s="1">
         <v>2001</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E16" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="3:5">
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="3:6">
       <c r="C17" s="1">
         <v>2002</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E17" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="3:5">
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="3:6">
       <c r="C18" s="1">
         <v>2003</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="3:5">
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="3:6">
       <c r="C19" s="1">
         <v>2004</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="3:5">
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="3:6">
       <c r="C20" s="1">
         <v>2005</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E20" s="1">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="3:5">
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="3:6">
       <c r="C21" s="1">
         <v>2006</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E21" s="1">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="3:5">
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="3:6">
       <c r="C22" s="1">
         <v>2007</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="3:5">
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="3:6">
       <c r="C23" s="1">
         <v>2008</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E23" s="1">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="3:5">
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="3:6">
       <c r="C24" s="1">
         <v>2009</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E24" s="1">
         <v>1.5</v>
       </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="4:4">
       <c r="D25" s="2"/>
     </row>
-    <row r="26" s="1" customFormat="1" spans="3:5">
+    <row r="26" s="1" customFormat="1" spans="3:6">
       <c r="C26" s="1">
         <v>3001</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E26" s="1">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="3:5">
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="3:6">
       <c r="C27" s="1">
         <v>3002</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E27" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="3:5">
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="3:6">
       <c r="C28" s="1">
         <v>3003</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E28" s="1">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="3:5">
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="3:6">
       <c r="C29" s="1">
         <v>3004</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E29" s="1">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="3:5">
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="3:6">
       <c r="C30" s="1">
         <v>3005</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E30" s="1">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="3:5">
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="3:6">
       <c r="C31" s="1">
         <v>3006</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E31" s="1">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="3:5">
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="3:6">
       <c r="C32" s="1">
         <v>3007</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E32" s="1">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="3:5">
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="3:6">
       <c r="C33" s="1">
         <v>3008</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E33" s="1">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="3:5">
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="3:6">
       <c r="C34" s="1">
         <v>3009</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E34" s="1">
         <v>0.75</v>
       </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="4:4">
       <c r="D35" s="2"/>
     </row>
-    <row r="36" s="1" customFormat="1" spans="3:5">
+    <row r="36" s="1" customFormat="1" spans="3:6">
       <c r="C36" s="1">
         <v>9001</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E36" s="1">
         <v>0.2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1"/>
@@ -1559,7 +1658,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C5 D3:D5 E3:E5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C5 D3:D5 E3:E5 F3:F5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/SkillModelConfig.xlsx
+++ b/Excel/SkillModelConfig.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -166,7 +179,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -339,12 +352,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1135,7 +1148,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1442,7 +1455,7 @@
         <v>1.5</v>
       </c>
       <c r="F24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="4:4">

--- a/Excel/SkillModelConfig.xlsx
+++ b/Excel/SkillModelConfig.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>_ID</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>开天斩</t>
+  </si>
+  <si>
+    <t>彻地钉</t>
   </si>
   <si>
     <t>小火球</t>
@@ -1143,12 +1146,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:F67"/>
+  <dimension ref="C3:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="A15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1329,32 +1332,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="4:4">
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="3:6">
-      <c r="C16" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D16" s="1" t="s">
+    <row r="15" s="1" customFormat="1" spans="3:6">
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E15" s="1">
         <v>0.3</v>
       </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="4:4">
+      <c r="D16" s="2"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="3:6">
       <c r="C17" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D17" s="2" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -1362,13 +1365,13 @@
     </row>
     <row r="18" s="1" customFormat="1" spans="3:6">
       <c r="C18" s="1">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -1376,7 +1379,7 @@
     </row>
     <row r="19" s="1" customFormat="1" spans="3:6">
       <c r="C19" s="1">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>22</v>
@@ -1390,13 +1393,13 @@
     </row>
     <row r="20" s="1" customFormat="1" spans="3:6">
       <c r="C20" s="1">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="1">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -1404,9 +1407,9 @@
     </row>
     <row r="21" s="1" customFormat="1" spans="3:6">
       <c r="C21" s="1">
-        <v>2006</v>
-      </c>
-      <c r="D21" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="1">
@@ -1418,13 +1421,13 @@
     </row>
     <row r="22" s="1" customFormat="1" spans="3:6">
       <c r="C22" s="1">
-        <v>2007</v>
-      </c>
-      <c r="D22" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -1432,13 +1435,13 @@
     </row>
     <row r="23" s="1" customFormat="1" spans="3:6">
       <c r="C23" s="1">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="1">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -1446,44 +1449,44 @@
     </row>
     <row r="24" s="1" customFormat="1" spans="3:6">
       <c r="C24" s="1">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="3:6">
+      <c r="C25" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="1">
         <v>1.5</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F25" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="4:4">
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="3:6">
-      <c r="C26" s="1">
-        <v>3001</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
+    <row r="26" s="1" customFormat="1" spans="4:4">
+      <c r="D26" s="2"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="3:6">
       <c r="C27" s="1">
-        <v>3002</v>
-      </c>
-      <c r="D27" s="1" t="s">
+        <v>3001</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E27" s="1">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
@@ -1491,13 +1494,13 @@
     </row>
     <row r="28" s="1" customFormat="1" spans="3:6">
       <c r="C28" s="1">
-        <v>3003</v>
-      </c>
-      <c r="D28" s="2" t="s">
+        <v>3002</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="1">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
@@ -1505,7 +1508,7 @@
     </row>
     <row r="29" s="1" customFormat="1" spans="3:6">
       <c r="C29" s="1">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>31</v>
@@ -1519,7 +1522,7 @@
     </row>
     <row r="30" s="1" customFormat="1" spans="3:6">
       <c r="C30" s="1">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>32</v>
@@ -1533,9 +1536,9 @@
     </row>
     <row r="31" s="1" customFormat="1" spans="3:6">
       <c r="C31" s="1">
-        <v>3006</v>
-      </c>
-      <c r="D31" s="1" t="s">
+        <v>3005</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E31" s="1">
@@ -1547,9 +1550,9 @@
     </row>
     <row r="32" s="1" customFormat="1" spans="3:6">
       <c r="C32" s="1">
-        <v>3007</v>
-      </c>
-      <c r="D32" s="2" t="s">
+        <v>3006</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E32" s="1">
@@ -1561,7 +1564,7 @@
     </row>
     <row r="33" s="1" customFormat="1" spans="3:6">
       <c r="C33" s="1">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>35</v>
@@ -1575,7 +1578,7 @@
     </row>
     <row r="34" s="1" customFormat="1" spans="3:6">
       <c r="C34" s="1">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>36</v>
@@ -1587,52 +1590,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="4:4">
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="3:6">
-      <c r="C36" s="1">
+    <row r="35" s="1" customFormat="1" spans="3:6">
+      <c r="C35" s="1">
+        <v>3009</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="4:4">
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="3:6">
+      <c r="C37" s="1">
         <v>9001</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="1">
+      <c r="D37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="1">
         <v>0.2</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F37" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1"/>
     <row r="38" s="1" customFormat="1"/>
-    <row r="39" s="1" customFormat="1" spans="4:4">
-      <c r="D39" s="2"/>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="4:4">
-      <c r="D43" s="2"/>
-    </row>
-    <row r="45" s="1" customFormat="1"/>
-    <row r="46" s="1" customFormat="1" spans="4:4">
-      <c r="D46" s="2"/>
-    </row>
+    <row r="39" s="1" customFormat="1"/>
+    <row r="40" s="1" customFormat="1" spans="4:4">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="4:4">
+      <c r="D44" s="2"/>
+    </row>
+    <row r="46" s="1" customFormat="1"/>
     <row r="47" s="1" customFormat="1" spans="4:4">
       <c r="D47" s="2"/>
     </row>
-    <row r="48" s="1" customFormat="1"/>
-    <row r="49" s="1" customFormat="1" spans="4:4">
-      <c r="D49" s="2"/>
-    </row>
+    <row r="48" s="1" customFormat="1" spans="4:4">
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" s="1" customFormat="1"/>
     <row r="50" s="1" customFormat="1" spans="4:4">
       <c r="D50" s="2"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="4:4">
       <c r="D51" s="2"/>
     </row>
-    <row r="52" s="1" customFormat="1"/>
-    <row r="53" s="1" customFormat="1" spans="4:4">
-      <c r="D53" s="2"/>
-    </row>
+    <row r="52" s="1" customFormat="1" spans="4:4">
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" s="1" customFormat="1"/>
     <row r="54" s="1" customFormat="1" spans="4:4">
       <c r="D54" s="2"/>
     </row>
@@ -1642,32 +1656,35 @@
     <row r="56" s="1" customFormat="1" spans="4:4">
       <c r="D56" s="2"/>
     </row>
-    <row r="57" s="1" customFormat="1"/>
-    <row r="58" s="1" customFormat="1" spans="4:4">
-      <c r="D58" s="2"/>
-    </row>
+    <row r="57" s="1" customFormat="1" spans="4:4">
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" s="1" customFormat="1"/>
     <row r="59" s="1" customFormat="1" spans="4:4">
       <c r="D59" s="2"/>
     </row>
-    <row r="60" s="1" customFormat="1"/>
-    <row r="61" s="1" customFormat="1" spans="4:4">
-      <c r="D61" s="2"/>
-    </row>
+    <row r="60" s="1" customFormat="1" spans="4:4">
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" s="1" customFormat="1"/>
     <row r="62" s="1" customFormat="1" spans="4:4">
       <c r="D62" s="2"/>
     </row>
     <row r="63" s="1" customFormat="1" spans="4:4">
       <c r="D63" s="2"/>
     </row>
-    <row r="64" s="1" customFormat="1"/>
-    <row r="65" s="1" customFormat="1" spans="4:4">
-      <c r="D65" s="2"/>
-    </row>
+    <row r="64" s="1" customFormat="1" spans="4:4">
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" s="1" customFormat="1"/>
     <row r="66" s="1" customFormat="1" spans="4:4">
       <c r="D66" s="2"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="4:4">
       <c r="D67" s="2"/>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="4:4">
+      <c r="D68" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
